--- a/N 8430 BF SIHADY.xlsx
+++ b/N 8430 BF SIHADY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -642,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,12 +1316,25 @@
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>299694</v>
+      </c>
+      <c r="F31" s="1">
+        <f>10000+E31</f>
+        <v>309694</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45538</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
